--- a/Ver2-Kết quả thực nghiệm.xlsx
+++ b/Ver2-Kết quả thực nghiệm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trung\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trung\Desktop\datn\thực nghiệm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420BAC63-998D-4161-B626-1A69A0A8C68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482C60D0-3DB9-4F31-B8C7-C91512BC010A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{7B47AD54-1C4F-482D-ACF5-98F24BEF1D6B}"/>
   </bookViews>
@@ -485,33 +485,6 @@
       <rPr>
         <b/>
         <u/>
-        <sz val="18"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Kết luận:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-+ Mô hình RNN cho độ chính xác tốt nhất
-+ Thời gian thực thi của các mô hình gần như tương đương, biLSTM  có xu hướng cao hơn
-+ Độ chính xác của mô hình có xu hướng tăng khi tăng epochs, trường hợp này thì độ chính xác đạt giá trị tốt nhất khi epochs = 1950</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
         <sz val="20"/>
         <color theme="0"/>
         <rFont val="Calibri"/>
@@ -568,6 +541,33 @@
 + Thời gian thực thi của các mô hình là tương đương nhau và mô hình BiLSTM có xu hướng cho thời gian thực thi lâu nhất
 + Các kết luận thực nghiệm bên trên chỉ có giá trị trong phạm vi đồ án tốt nghiệp này, kết quả xảy ra có thể không phải do bản chất mô hình không tốt mà do cách người thực nghiệm xây dựng model.</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="18"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kết luận:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
++ Mô hình RNN cho độ chính xác tốt nhất
++ Thời gian thực thi của các mô hình gần như tương đương, biLSTM  có xu hướng cao hơn
++ Độ chính xác của mô hình có xu hướng tăng giảm liên tục, trường hợp này thì độ chính xác đạt giá trị tốt nhất khi epochs = 1950</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -576,7 +576,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -739,7 +739,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -788,13 +788,13 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -812,24 +812,26 @@
     <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -838,11 +840,8 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -26865,7 +26864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74137BD4-3CD1-4B6B-B41C-BBD2AF85D914}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
@@ -27240,16 +27239,16 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -27265,8 +27264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94EFD9F5-E978-4764-830A-7411A55D7B46}">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+    <sheetView topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28388,14 +28387,2357 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H42" s="28">
+      <c r="H42" s="26">
         <f>SUM(H2:H41)</f>
         <v>38194</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="32" t="s">
-        <v>142</v>
+      <c r="A47" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="30"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="30"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="30"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="30"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="30"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="30"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="30"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="30"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="30"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="30"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A47:H57"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{274F2BAF-E6D8-4361-9158-A0B0EA286D73}">
+  <dimension ref="A1:H57"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:H57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1"/>
+    <col min="7" max="7" width="14.77734375" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>200</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3">
+        <v>7.3475859999999997</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1.9184540000000001</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1.4517E-2</v>
+      </c>
+      <c r="F2" s="3">
+        <v>2.7106430000000001</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2">
+        <f>VALUE(LEFT(G2,FIND("phút",G2)-2)*60+MID(G2,FIND("giây", G2)-3, 2))</f>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>200</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3">
+        <v>6.9268190000000001</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1.8887689999999999</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1.4359E-2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2.631885</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H40" si="0">VALUE(LEFT(G3,FIND("phút",G3)-2)*60+MID(G3,FIND("giây", G3)-3, 2))</f>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>200</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>7.4898930000000004</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1.9244969999999999</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1.4624E-2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2.7367669999999999</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>200</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5">
+        <v>7.6834600000000002</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1.977706</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1.4916E-2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2.771906</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>200</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="3">
+        <v>6.9479013600442743</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1.8703907627258041</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1.425931036426052E-2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2.6358872054859011</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>450</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3">
+        <v>6.7009090000000002</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1.8300749999999999</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1.3924000000000001E-2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2.5886110000000002</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>377</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>450</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3">
+        <v>6.4238189999999999</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1.8191889999999999</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1.3865000000000001E-2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2.5345249999999999</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>382</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>450</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3">
+        <v>6.909262</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1.8659479999999999</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1.4177E-2</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2.6285479999999999</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>473</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>450</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3">
+        <v>6.4852959999999999</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1.7835760000000001</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1.3558000000000001E-2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2.546624</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>450</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="5">
+        <v>6.2190396521378668</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1.7882801542625739</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1.3626237116488299E-2</v>
+      </c>
+      <c r="F11" s="5">
+        <v>2.493800243030277</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>417</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>700</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3">
+        <v>7.465484</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1.9015960000000001</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1.4362E-2</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2.7323040000000001</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>539</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>700</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="3">
+        <v>6.6207349999999998</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1.8107409999999999</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1.3794000000000001E-2</v>
+      </c>
+      <c r="F13" s="3">
+        <v>2.5730789999999999</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>571</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>700</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3">
+        <v>7.2745980000000001</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1.8913549999999999</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1.4456E-2</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2.697146</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>736</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>700</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="5">
+        <v>7.01729</v>
+      </c>
+      <c r="D15" s="8">
+        <v>1.9004000000000001</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1.4534E-2</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2.6490170000000002</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>558</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>700</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="3">
+        <v>6.2196568303835136</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1.7821294109384209</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1.360772857277447E-2</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2.4939239824789192</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>562</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>950</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="3">
+        <v>6.5988470000000001</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1.8251109999999999</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1.3922E-2</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2.5688219999999999</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>855</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>950</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="5">
+        <v>6.9501999999999997</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1.8675079999999999</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1.4237E-2</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2.636323</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>783</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>950</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="3">
+        <v>6.9247110000000003</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1.8924190000000001</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1.4415000000000001E-2</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2.6314850000000001</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>950</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="5">
+        <v>6.6729200000000004</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1.840622</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1.4012E-2</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2.5832000000000002</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>771</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>950</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="3">
+        <v>6.9263360175281967</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1.8681024918930791</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1.428392952153781E-2</v>
+      </c>
+      <c r="F21" s="3">
+        <v>2.631793308283954</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>858</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="3">
+        <v>7.0576049999999997</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1.8878999999999999</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1.4317E-2</v>
+      </c>
+      <c r="F22" s="3">
+        <v>2.6566149999999999</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>963</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="3">
+        <v>7.3104709999999997</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1.9285699999999999</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1.4614E-2</v>
+      </c>
+      <c r="F23" s="3">
+        <v>2.7037879999999999</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>1200</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="3">
+        <v>7.2828160000000004</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1.9269750000000001</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1.473E-2</v>
+      </c>
+      <c r="F24" s="3">
+        <v>2.6986690000000002</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>1200</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="3">
+        <v>6.9226939999999999</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1.905732</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1.4501E-2</v>
+      </c>
+      <c r="F25" s="3">
+        <v>2.6311010000000001</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="3">
+        <v>6.8457450274018727</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1.8368042481021729</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1.4034121462806481E-2</v>
+      </c>
+      <c r="F26" s="3">
+        <v>2.6164374686588392</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>1450</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="3">
+        <v>6.7991239999999999</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1.827472</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1.3894999999999999E-2</v>
+      </c>
+      <c r="F27" s="3">
+        <v>2.607513</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>1450</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="3">
+        <v>7.5462590000000001</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1.9722420000000001</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1.4994E-2</v>
+      </c>
+      <c r="F28" s="3">
+        <v>2.747045</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>1450</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="3">
+        <v>6.7677449999999997</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1.8588420000000001</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1.4272E-2</v>
+      </c>
+      <c r="F29" s="3">
+        <v>2.6014889999999999</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>1450</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="3">
+        <v>6.2742550000000001</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1.7705329999999999</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1.3487000000000001E-2</v>
+      </c>
+      <c r="F30" s="3">
+        <v>2.5048460000000001</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>1450</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="3">
+        <v>6.5366515421573368</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1.829373778583077</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1.398501295616505E-2</v>
+      </c>
+      <c r="F31" s="3">
+        <v>2.5566876113747909</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="3">
+        <v>7.1752609999999999</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1.8970320000000001</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1.4278000000000001E-2</v>
+      </c>
+      <c r="F32" s="3">
+        <v>2.678668</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>1700</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="3">
+        <v>7.9622549999999999</v>
+      </c>
+      <c r="D33" s="3">
+        <v>2.0259399999999999</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1.5315E-2</v>
+      </c>
+      <c r="F33" s="3">
+        <v>2.8217469999999998</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>1700</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="3">
+        <v>7.026821</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1.917168</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1.4577E-2</v>
+      </c>
+      <c r="F34" s="3">
+        <v>2.6508150000000001</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>1700</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="3">
+        <v>7.1598949999999997</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1.9066890000000001</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1.4486000000000001E-2</v>
+      </c>
+      <c r="F35" s="3">
+        <v>2.6757979999999999</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>1700</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" s="3">
+        <v>6.5442921235992646</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1.8284088073031459</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1.40031834652326E-2</v>
+      </c>
+      <c r="F36" s="3">
+        <v>2.558181409438991</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>3383</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>1950</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="3">
+        <v>6.6796660000000001</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1.8312059999999999</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1.3891000000000001E-2</v>
+      </c>
+      <c r="F37" s="3">
+        <v>2.5845050000000001</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="0"/>
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>1950</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="3">
+        <v>6.6445410000000003</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1.827555</v>
+      </c>
+      <c r="E38" s="3">
+        <v>1.392E-2</v>
+      </c>
+      <c r="F38" s="3">
+        <v>2.5777009999999998</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="0"/>
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>1950</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="3">
+        <v>6.9705620000000001</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1.88</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1.4308E-2</v>
+      </c>
+      <c r="F39" s="3">
+        <v>2.6401819999999998</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="0"/>
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>1950</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="3">
+        <v>7.0047819999999996</v>
+      </c>
+      <c r="D40" s="3">
+        <v>1.856784</v>
+      </c>
+      <c r="E40" s="3">
+        <v>1.4033E-2</v>
+      </c>
+      <c r="F40" s="3">
+        <v>2.646655</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="0"/>
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>1950</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" s="3">
+        <v>7.0678120959999999</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1.8890556060000001</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1.4448635E-2</v>
+      </c>
+      <c r="F41" s="3">
+        <v>2.6585357049999998</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H41">
+        <f>VALUE(LEFT(G41,FIND("phút",G41)-2)*60+MID(G41,FIND("giây", G41)-3, 2))</f>
+        <v>3106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H42">
+        <f>SUM(H2:H41)</f>
+        <v>47005</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="27"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="32"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="32"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="32"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="32"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="32"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="32"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="32"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="32"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="32"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="32"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="32"/>
+      <c r="B57" s="32"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A47:H57"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B4DB42-16F2-4BB6-B0E9-F85988BAC72A}">
+  <dimension ref="A1:H57"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9" style="2" customWidth="1"/>
+    <col min="5" max="6" width="8.88671875" style="2"/>
+    <col min="7" max="7" width="14.6640625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="9">
+        <v>200</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="9">
+        <v>5.7268470000000002</v>
+      </c>
+      <c r="D2" s="9">
+        <v>1.6122129999999999</v>
+      </c>
+      <c r="E2" s="9">
+        <v>1.3132E-2</v>
+      </c>
+      <c r="F2" s="9">
+        <v>2.3930829999999998</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
+        <v>200</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="9">
+        <v>5.8175910000000002</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1.664703</v>
+      </c>
+      <c r="E3" s="9">
+        <v>1.3523E-2</v>
+      </c>
+      <c r="F3" s="9">
+        <v>2.4119679999999999</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
+        <v>200</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="9">
+        <v>5.9482650000000001</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1.661017</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1.3542E-2</v>
+      </c>
+      <c r="F4" s="9">
+        <v>2.4389069999999999</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>200</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="9">
+        <v>6.4899810000000002</v>
+      </c>
+      <c r="D5" s="9">
+        <v>1.7137579999999999</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1.3974E-2</v>
+      </c>
+      <c r="F5" s="9">
+        <v>2.5475439999999998</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>200</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="9">
+        <v>5.5867550899999996</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1.5912682039999999</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1.3004546000000001E-2</v>
+      </c>
+      <c r="F6" s="9">
+        <v>2.363631759</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>450</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9">
+        <v>6.2686900000000003</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1.6652469999999999</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1.3594E-2</v>
+      </c>
+      <c r="F7" s="9">
+        <v>2.5037349999999998</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>450</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="9">
+        <v>5.5813620000000004</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1.602895</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1.3037999999999999E-2</v>
+      </c>
+      <c r="F8" s="9">
+        <v>2.3624909999999999</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
+        <v>450</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="9">
+        <v>5.7795639999999997</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1.6611769999999999</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1.3556E-2</v>
+      </c>
+      <c r="F9" s="9">
+        <v>2.4040720000000002</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>450</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="9">
+        <v>5.4178569999999997</v>
+      </c>
+      <c r="D10" s="9">
+        <v>1.5712919999999999</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1.2803E-2</v>
+      </c>
+      <c r="F10" s="9">
+        <v>2.3276289999999999</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
+        <v>450</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="9">
+        <v>5.4951415849999998</v>
+      </c>
+      <c r="D11" s="9">
+        <v>1.5641287020000001</v>
+      </c>
+      <c r="E11" s="9">
+        <v>1.2774294E-2</v>
+      </c>
+      <c r="F11" s="9">
+        <v>2.3441718329999999</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
+        <v>700</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="9">
+        <v>5.5732220000000003</v>
+      </c>
+      <c r="D12" s="9">
+        <v>1.5741700000000001</v>
+      </c>
+      <c r="E12" s="9">
+        <v>1.2815E-2</v>
+      </c>
+      <c r="F12" s="9">
+        <v>2.3607670000000001</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
+        <v>700</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="9">
+        <v>6.0681149999999997</v>
+      </c>
+      <c r="D13" s="9">
+        <v>1.670093</v>
+      </c>
+      <c r="E13" s="9">
+        <v>1.3611E-2</v>
+      </c>
+      <c r="F13" s="9">
+        <v>2.463355</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
+        <v>700</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="9">
+        <v>5.9792779999999999</v>
+      </c>
+      <c r="D14" s="9">
+        <v>1.6812469999999999</v>
+      </c>
+      <c r="E14" s="9">
+        <v>1.3731E-2</v>
+      </c>
+      <c r="F14" s="9">
+        <v>2.4452560000000001</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
+        <v>700</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="9">
+        <v>5.2344569999999999</v>
+      </c>
+      <c r="D15" s="9">
+        <v>1.5199389999999999</v>
+      </c>
+      <c r="E15" s="9">
+        <v>1.238E-2</v>
+      </c>
+      <c r="F15" s="9">
+        <v>2.2878940000000001</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="9">
+        <v>700</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="9">
+        <v>5.1955267919999999</v>
+      </c>
+      <c r="D16" s="9">
+        <v>1.5284960970000001</v>
+      </c>
+      <c r="E16" s="9">
+        <v>1.2478497999999999E-2</v>
+      </c>
+      <c r="F16" s="9">
+        <v>2.2793698230000001</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
+        <v>950</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="9">
+        <v>5.2908249999999999</v>
+      </c>
+      <c r="D17" s="9">
+        <v>1.5283009999999999</v>
+      </c>
+      <c r="E17" s="9">
+        <v>1.2477E-2</v>
+      </c>
+      <c r="F17" s="9">
+        <v>2.300179</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
+        <v>950</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="9">
+        <v>5.2087339999999998</v>
+      </c>
+      <c r="D18" s="9">
+        <v>1.5541780000000001</v>
+      </c>
+      <c r="E18" s="9">
+        <v>1.2699E-2</v>
+      </c>
+      <c r="F18" s="9">
+        <v>2.2822650000000002</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
+        <v>950</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="9">
+        <v>5.7707839999999999</v>
+      </c>
+      <c r="D19" s="9">
+        <v>1.6231150000000001</v>
+      </c>
+      <c r="E19" s="9">
+        <v>1.3252999999999999E-2</v>
+      </c>
+      <c r="F19" s="9">
+        <v>2.4022459999999999</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="9">
+        <v>950</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="9">
+        <v>5.6070669999999998</v>
+      </c>
+      <c r="D20" s="9">
+        <v>1.5620240000000001</v>
+      </c>
+      <c r="E20" s="9">
+        <v>1.2727E-2</v>
+      </c>
+      <c r="F20" s="9">
+        <v>2.3679250000000001</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
+        <v>950</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="9">
+        <v>5.5741645999999996</v>
+      </c>
+      <c r="D21" s="9">
+        <v>1.565354374</v>
+      </c>
+      <c r="E21" s="9">
+        <v>1.2791924E-2</v>
+      </c>
+      <c r="F21" s="9">
+        <v>2.3609668780000002</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="9">
+        <v>1200</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="9">
+        <v>5.8258229999999998</v>
+      </c>
+      <c r="D22" s="9">
+        <v>1.61653</v>
+      </c>
+      <c r="E22" s="9">
+        <v>1.3174E-2</v>
+      </c>
+      <c r="F22" s="9">
+        <v>2.4136739999999999</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="9">
+        <v>1200</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="9">
+        <v>5.241644</v>
+      </c>
+      <c r="D23" s="9">
+        <v>1.5311049999999999</v>
+      </c>
+      <c r="E23" s="9">
+        <v>1.2460000000000001E-2</v>
+      </c>
+      <c r="F23" s="9">
+        <v>2.2894640000000002</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="9">
+        <v>1200</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="9">
+        <v>6.2929149999999998</v>
+      </c>
+      <c r="D24" s="9">
+        <v>1.7434339999999999</v>
+      </c>
+      <c r="E24" s="9">
+        <v>1.4215999999999999E-2</v>
+      </c>
+      <c r="F24" s="9">
+        <v>2.5085679999999999</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="9">
+        <v>1200</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="9">
+        <v>5.606814</v>
+      </c>
+      <c r="D25" s="9">
+        <v>1.564154</v>
+      </c>
+      <c r="E25" s="9">
+        <v>1.2782E-2</v>
+      </c>
+      <c r="F25" s="9">
+        <v>2.3678710000000001</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="9">
+        <v>1200</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="9">
+        <v>5.4270964900000003</v>
+      </c>
+      <c r="D26" s="9">
+        <v>1.550520726</v>
+      </c>
+      <c r="E26" s="9">
+        <v>1.264998E-2</v>
+      </c>
+      <c r="F26" s="9">
+        <v>2.3296129489999999</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="9">
+        <v>1450</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="9">
+        <v>5.2923549999999997</v>
+      </c>
+      <c r="D27" s="9">
+        <v>1.5485</v>
+      </c>
+      <c r="E27" s="9">
+        <v>1.2635E-2</v>
+      </c>
+      <c r="F27" s="9">
+        <v>2.3005119999999999</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="9">
+        <v>1450</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="9">
+        <v>5.7222939999999998</v>
+      </c>
+      <c r="D28" s="9">
+        <v>1.6005210000000001</v>
+      </c>
+      <c r="E28" s="9">
+        <v>1.3077E-2</v>
+      </c>
+      <c r="F28" s="9">
+        <v>2.3921320000000001</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="9">
+        <v>1450</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="9">
+        <v>6.3399049999999999</v>
+      </c>
+      <c r="D29" s="9">
+        <v>1.6922740000000001</v>
+      </c>
+      <c r="E29" s="9">
+        <v>1.3823999999999999E-2</v>
+      </c>
+      <c r="F29" s="9">
+        <v>2.5179170000000002</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="9">
+        <v>1450</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="9">
+        <v>5.8903970000000001</v>
+      </c>
+      <c r="D30" s="9">
+        <v>1.6263650000000001</v>
+      </c>
+      <c r="E30" s="9">
+        <v>1.3254E-2</v>
+      </c>
+      <c r="F30" s="9">
+        <v>2.4270139999999998</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="9">
+        <v>1450</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="9">
+        <v>5.5519440290000004</v>
+      </c>
+      <c r="D31" s="9">
+        <v>1.564234981</v>
+      </c>
+      <c r="E31" s="9">
+        <v>1.2759885E-2</v>
+      </c>
+      <c r="F31" s="9">
+        <v>2.3562563590000001</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="9">
+        <v>1700</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="9">
+        <v>5.3945420000000004</v>
+      </c>
+      <c r="D32" s="9">
+        <v>1.562891</v>
+      </c>
+      <c r="E32" s="9">
+        <v>1.2733E-2</v>
+      </c>
+      <c r="F32" s="9">
+        <v>2.3226149999999999</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="9">
+        <v>1700</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="9">
+        <v>6.2560019999999996</v>
+      </c>
+      <c r="D33" s="9">
+        <v>1.6887319999999999</v>
+      </c>
+      <c r="E33" s="9">
+        <v>1.3771E-2</v>
+      </c>
+      <c r="F33" s="9">
+        <v>2.5011999999999999</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="9">
+        <v>1700</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="9">
+        <v>6.0995470000000003</v>
+      </c>
+      <c r="D34" s="9">
+        <v>1.680825</v>
+      </c>
+      <c r="E34" s="9">
+        <v>1.3679999999999999E-2</v>
+      </c>
+      <c r="F34" s="9">
+        <v>2.4697260000000001</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="9">
+        <v>1700</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="9">
+        <v>5.6111399999999998</v>
+      </c>
+      <c r="D35" s="9">
+        <v>1.5643769999999999</v>
+      </c>
+      <c r="E35" s="9">
+        <v>1.2760000000000001E-2</v>
+      </c>
+      <c r="F35" s="9">
+        <v>2.3687839999999998</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="9">
+        <v>1700</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" s="9">
+        <v>5.7514176380000004</v>
+      </c>
+      <c r="D36" s="9">
+        <v>1.6147433579999999</v>
+      </c>
+      <c r="E36" s="9">
+        <v>1.3173528E-2</v>
+      </c>
+      <c r="F36" s="9">
+        <v>2.3982113410000001</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="9">
+        <v>1950</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="9">
+        <v>5.524451</v>
+      </c>
+      <c r="D37" s="9">
+        <v>1.5776479999999999</v>
+      </c>
+      <c r="E37" s="9">
+        <v>1.2881E-2</v>
+      </c>
+      <c r="F37" s="9">
+        <v>2.3504149999999999</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="9">
+        <v>1950</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="9">
+        <v>5.9718900000000001</v>
+      </c>
+      <c r="D38" s="9">
+        <v>1.666426</v>
+      </c>
+      <c r="E38" s="9">
+        <v>1.3584000000000001E-2</v>
+      </c>
+      <c r="F38" s="9">
+        <v>2.4437449999999998</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="9">
+        <v>1950</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="9">
+        <v>6.7022360000000001</v>
+      </c>
+      <c r="D39" s="9">
+        <v>1.7183440000000001</v>
+      </c>
+      <c r="E39" s="9">
+        <v>1.4094000000000001E-2</v>
+      </c>
+      <c r="F39" s="9">
+        <v>2.5888680000000002</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="9">
+        <v>1950</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="9">
+        <v>6.6990290000000003</v>
+      </c>
+      <c r="D40" s="9">
+        <v>1.706604</v>
+      </c>
+      <c r="E40" s="9">
+        <v>1.3922E-2</v>
+      </c>
+      <c r="F40" s="9">
+        <v>2.5882480000000001</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="9">
+        <v>1950</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" s="9">
+        <v>5.4820377819999999</v>
+      </c>
+      <c r="D41" s="9">
+        <v>1.594813686</v>
+      </c>
+      <c r="E41" s="9">
+        <v>1.3014011000000001E-2</v>
+      </c>
+      <c r="F41" s="9">
+        <v>2.3413751899999999</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="31" t="s">
+        <v>143</v>
       </c>
       <c r="B47" s="33"/>
       <c r="C47" s="33"/>
@@ -28514,2355 +30856,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{274F2BAF-E6D8-4361-9158-A0B0EA286D73}">
-  <dimension ref="A1:H57"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:H57"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="16.77734375" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" customWidth="1"/>
-    <col min="7" max="7" width="14.77734375" customWidth="1"/>
-    <col min="8" max="8" width="14.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>200</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3">
-        <v>7.3475859999999997</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1.9184540000000001</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1.4517E-2</v>
-      </c>
-      <c r="F2" s="3">
-        <v>2.7106430000000001</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="H2">
-        <f>VALUE(LEFT(G2,FIND("phút",G2)-2)*60+MID(G2,FIND("giây", G2)-3, 2))</f>
-        <v>193</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>200</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3">
-        <v>6.9268190000000001</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1.8887689999999999</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1.4359E-2</v>
-      </c>
-      <c r="F3" s="3">
-        <v>2.631885</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H40" si="0">VALUE(LEFT(G3,FIND("phút",G3)-2)*60+MID(G3,FIND("giây", G3)-3, 2))</f>
-        <v>233</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>200</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3">
-        <v>7.4898930000000004</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1.9244969999999999</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1.4624E-2</v>
-      </c>
-      <c r="F4" s="3">
-        <v>2.7367669999999999</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="0"/>
-        <v>181</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>200</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="5">
-        <v>7.6834600000000002</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1.977706</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1.4916E-2</v>
-      </c>
-      <c r="F5" s="3">
-        <v>2.771906</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="0"/>
-        <v>179</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>200</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" s="3">
-        <v>6.9479013600442743</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1.8703907627258041</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1.425931036426052E-2</v>
-      </c>
-      <c r="F6" s="3">
-        <v>2.6358872054859011</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
-        <v>224</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>450</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3">
-        <v>6.7009090000000002</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1.8300749999999999</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1.3924000000000001E-2</v>
-      </c>
-      <c r="F7" s="3">
-        <v>2.5886110000000002</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
-        <v>377</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>450</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="3">
-        <v>6.4238189999999999</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1.8191889999999999</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1.3865000000000001E-2</v>
-      </c>
-      <c r="F8" s="3">
-        <v>2.5345249999999999</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
-        <v>382</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>450</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="3">
-        <v>6.909262</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1.8659479999999999</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1.4177E-2</v>
-      </c>
-      <c r="F9" s="3">
-        <v>2.6285479999999999</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
-        <v>473</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>450</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="3">
-        <v>6.4852959999999999</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1.7835760000000001</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1.3558000000000001E-2</v>
-      </c>
-      <c r="F10" s="3">
-        <v>2.546624</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="0"/>
-        <v>380</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>450</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" s="5">
-        <v>6.2190396521378668</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1.7882801542625739</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1.3626237116488299E-2</v>
-      </c>
-      <c r="F11" s="5">
-        <v>2.493800243030277</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="0"/>
-        <v>417</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>700</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="3">
-        <v>7.465484</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1.9015960000000001</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1.4362E-2</v>
-      </c>
-      <c r="F12" s="3">
-        <v>2.7323040000000001</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="0"/>
-        <v>539</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>700</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="3">
-        <v>6.6207349999999998</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1.8107409999999999</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1.3794000000000001E-2</v>
-      </c>
-      <c r="F13" s="3">
-        <v>2.5730789999999999</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="0"/>
-        <v>571</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>700</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="3">
-        <v>7.2745980000000001</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1.8913549999999999</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1.4456E-2</v>
-      </c>
-      <c r="F14" s="3">
-        <v>2.697146</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="0"/>
-        <v>736</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>700</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="5">
-        <v>7.01729</v>
-      </c>
-      <c r="D15" s="8">
-        <v>1.9004000000000001</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1.4534E-2</v>
-      </c>
-      <c r="F15" s="3">
-        <v>2.6490170000000002</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="0"/>
-        <v>558</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>700</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C16" s="3">
-        <v>6.2196568303835136</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1.7821294109384209</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1.360772857277447E-2</v>
-      </c>
-      <c r="F16" s="3">
-        <v>2.4939239824789192</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="0"/>
-        <v>562</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
-        <v>950</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="3">
-        <v>6.5988470000000001</v>
-      </c>
-      <c r="D17" s="3">
-        <v>1.8251109999999999</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1.3922E-2</v>
-      </c>
-      <c r="F17" s="3">
-        <v>2.5688219999999999</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="0"/>
-        <v>855</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>950</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="5">
-        <v>6.9501999999999997</v>
-      </c>
-      <c r="D18" s="3">
-        <v>1.8675079999999999</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1.4237E-2</v>
-      </c>
-      <c r="F18" s="3">
-        <v>2.636323</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="0"/>
-        <v>783</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
-        <v>950</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="3">
-        <v>6.9247110000000003</v>
-      </c>
-      <c r="D19" s="3">
-        <v>1.8924190000000001</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1.4415000000000001E-2</v>
-      </c>
-      <c r="F19" s="3">
-        <v>2.6314850000000001</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="0"/>
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
-        <v>950</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="5">
-        <v>6.6729200000000004</v>
-      </c>
-      <c r="D20" s="3">
-        <v>1.840622</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1.4012E-2</v>
-      </c>
-      <c r="F20" s="3">
-        <v>2.5832000000000002</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="0"/>
-        <v>771</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
-        <v>950</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" s="3">
-        <v>6.9263360175281967</v>
-      </c>
-      <c r="D21" s="3">
-        <v>1.8681024918930791</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1.428392952153781E-2</v>
-      </c>
-      <c r="F21" s="3">
-        <v>2.631793308283954</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="0"/>
-        <v>858</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
-        <v>1200</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="3">
-        <v>7.0576049999999997</v>
-      </c>
-      <c r="D22" s="3">
-        <v>1.8878999999999999</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1.4317E-2</v>
-      </c>
-      <c r="F22" s="3">
-        <v>2.6566149999999999</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="0"/>
-        <v>963</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
-        <v>1200</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="3">
-        <v>7.3104709999999997</v>
-      </c>
-      <c r="D23" s="3">
-        <v>1.9285699999999999</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1.4614E-2</v>
-      </c>
-      <c r="F23" s="3">
-        <v>2.7037879999999999</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="0"/>
-        <v>1196</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
-        <v>1200</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="3">
-        <v>7.2828160000000004</v>
-      </c>
-      <c r="D24" s="3">
-        <v>1.9269750000000001</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1.473E-2</v>
-      </c>
-      <c r="F24" s="3">
-        <v>2.6986690000000002</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="0"/>
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
-        <v>1200</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="3">
-        <v>6.9226939999999999</v>
-      </c>
-      <c r="D25" s="3">
-        <v>1.905732</v>
-      </c>
-      <c r="E25" s="3">
-        <v>1.4501E-2</v>
-      </c>
-      <c r="F25" s="3">
-        <v>2.6311010000000001</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="0"/>
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
-        <v>1200</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C26" s="3">
-        <v>6.8457450274018727</v>
-      </c>
-      <c r="D26" s="3">
-        <v>1.8368042481021729</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1.4034121462806481E-2</v>
-      </c>
-      <c r="F26" s="3">
-        <v>2.6164374686588392</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="0"/>
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
-        <v>1450</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="3">
-        <v>6.7991239999999999</v>
-      </c>
-      <c r="D27" s="3">
-        <v>1.827472</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1.3894999999999999E-2</v>
-      </c>
-      <c r="F27" s="3">
-        <v>2.607513</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="0"/>
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
-        <v>1450</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="3">
-        <v>7.5462590000000001</v>
-      </c>
-      <c r="D28" s="3">
-        <v>1.9722420000000001</v>
-      </c>
-      <c r="E28" s="3">
-        <v>1.4994E-2</v>
-      </c>
-      <c r="F28" s="3">
-        <v>2.747045</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="0"/>
-        <v>1431</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
-        <v>1450</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="3">
-        <v>6.7677449999999997</v>
-      </c>
-      <c r="D29" s="3">
-        <v>1.8588420000000001</v>
-      </c>
-      <c r="E29" s="3">
-        <v>1.4272E-2</v>
-      </c>
-      <c r="F29" s="3">
-        <v>2.6014889999999999</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="0"/>
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
-        <v>1450</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="3">
-        <v>6.2742550000000001</v>
-      </c>
-      <c r="D30" s="3">
-        <v>1.7705329999999999</v>
-      </c>
-      <c r="E30" s="3">
-        <v>1.3487000000000001E-2</v>
-      </c>
-      <c r="F30" s="3">
-        <v>2.5048460000000001</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="0"/>
-        <v>1551</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
-        <v>1450</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C31" s="3">
-        <v>6.5366515421573368</v>
-      </c>
-      <c r="D31" s="3">
-        <v>1.829373778583077</v>
-      </c>
-      <c r="E31" s="3">
-        <v>1.398501295616505E-2</v>
-      </c>
-      <c r="F31" s="3">
-        <v>2.5566876113747909</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="0"/>
-        <v>1493</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
-        <v>1700</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="3">
-        <v>7.1752609999999999</v>
-      </c>
-      <c r="D32" s="3">
-        <v>1.8970320000000001</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1.4278000000000001E-2</v>
-      </c>
-      <c r="F32" s="3">
-        <v>2.678668</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="0"/>
-        <v>1629</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
-        <v>1700</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="3">
-        <v>7.9622549999999999</v>
-      </c>
-      <c r="D33" s="3">
-        <v>2.0259399999999999</v>
-      </c>
-      <c r="E33" s="3">
-        <v>1.5315E-2</v>
-      </c>
-      <c r="F33" s="3">
-        <v>2.8217469999999998</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="0"/>
-        <v>1497</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
-        <v>1700</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="3">
-        <v>7.026821</v>
-      </c>
-      <c r="D34" s="3">
-        <v>1.917168</v>
-      </c>
-      <c r="E34" s="3">
-        <v>1.4577E-2</v>
-      </c>
-      <c r="F34" s="3">
-        <v>2.6508150000000001</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="0"/>
-        <v>1919</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
-        <v>1700</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="3">
-        <v>7.1598949999999997</v>
-      </c>
-      <c r="D35" s="3">
-        <v>1.9066890000000001</v>
-      </c>
-      <c r="E35" s="3">
-        <v>1.4486000000000001E-2</v>
-      </c>
-      <c r="F35" s="3">
-        <v>2.6757979999999999</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="0"/>
-        <v>2419</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
-        <v>1700</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C36" s="3">
-        <v>6.5442921235992646</v>
-      </c>
-      <c r="D36" s="3">
-        <v>1.8284088073031459</v>
-      </c>
-      <c r="E36" s="3">
-        <v>1.40031834652326E-2</v>
-      </c>
-      <c r="F36" s="3">
-        <v>2.558181409438991</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="0"/>
-        <v>3383</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
-        <v>1950</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="3">
-        <v>6.6796660000000001</v>
-      </c>
-      <c r="D37" s="3">
-        <v>1.8312059999999999</v>
-      </c>
-      <c r="E37" s="3">
-        <v>1.3891000000000001E-2</v>
-      </c>
-      <c r="F37" s="3">
-        <v>2.5845050000000001</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="0"/>
-        <v>1945</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
-        <v>1950</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="3">
-        <v>6.6445410000000003</v>
-      </c>
-      <c r="D38" s="3">
-        <v>1.827555</v>
-      </c>
-      <c r="E38" s="3">
-        <v>1.392E-2</v>
-      </c>
-      <c r="F38" s="3">
-        <v>2.5777009999999998</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="0"/>
-        <v>2299</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="3">
-        <v>1950</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="3">
-        <v>6.9705620000000001</v>
-      </c>
-      <c r="D39" s="3">
-        <v>1.88</v>
-      </c>
-      <c r="E39" s="3">
-        <v>1.4308E-2</v>
-      </c>
-      <c r="F39" s="3">
-        <v>2.6401819999999998</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="0"/>
-        <v>2540</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
-        <v>1950</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="3">
-        <v>7.0047819999999996</v>
-      </c>
-      <c r="D40" s="3">
-        <v>1.856784</v>
-      </c>
-      <c r="E40" s="3">
-        <v>1.4033E-2</v>
-      </c>
-      <c r="F40" s="3">
-        <v>2.646655</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="0"/>
-        <v>3040</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="3">
-        <v>1950</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C41" s="3">
-        <v>7.0678120959999999</v>
-      </c>
-      <c r="D41" s="3">
-        <v>1.8890556060000001</v>
-      </c>
-      <c r="E41" s="3">
-        <v>1.4448635E-2</v>
-      </c>
-      <c r="F41" s="3">
-        <v>2.6585357049999998</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="H41">
-        <f>VALUE(LEFT(G41,FIND("phút",G41)-2)*60+MID(G41,FIND("giây", G41)-3, 2))</f>
-        <v>3106</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H42" s="27">
-        <f>SUM(H2:H41)</f>
-        <v>47005</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="29"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="B47" s="37"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="37"/>
-      <c r="B48" s="37"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="37"/>
-      <c r="B49" s="37"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="37"/>
-      <c r="B50" s="37"/>
-      <c r="C50" s="37"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="37"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="37"/>
-      <c r="B51" s="37"/>
-      <c r="C51" s="37"/>
-      <c r="D51" s="37"/>
-      <c r="E51" s="37"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="37"/>
-      <c r="H51" s="37"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="37"/>
-      <c r="B52" s="37"/>
-      <c r="C52" s="37"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="37"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="37"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="37"/>
-      <c r="B53" s="37"/>
-      <c r="C53" s="37"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="37"/>
-      <c r="F53" s="37"/>
-      <c r="G53" s="37"/>
-      <c r="H53" s="37"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="37"/>
-      <c r="B54" s="37"/>
-      <c r="C54" s="37"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="37"/>
-      <c r="H54" s="37"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="37"/>
-      <c r="B55" s="37"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="37"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="37"/>
-      <c r="H55" s="37"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="37"/>
-      <c r="B56" s="37"/>
-      <c r="C56" s="37"/>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="37"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="37"/>
-      <c r="B57" s="37"/>
-      <c r="C57" s="37"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A47:H57"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B4DB42-16F2-4BB6-B0E9-F85988BAC72A}">
-  <dimension ref="A1:H57"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.21875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9" style="2" customWidth="1"/>
-    <col min="5" max="6" width="8.88671875" style="2"/>
-    <col min="7" max="7" width="14.6640625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
-        <v>200</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="9">
-        <v>5.7268470000000002</v>
-      </c>
-      <c r="D2" s="9">
-        <v>1.6122129999999999</v>
-      </c>
-      <c r="E2" s="9">
-        <v>1.3132E-2</v>
-      </c>
-      <c r="F2" s="9">
-        <v>2.3930829999999998</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
-        <v>200</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="9">
-        <v>5.8175910000000002</v>
-      </c>
-      <c r="D3" s="9">
-        <v>1.664703</v>
-      </c>
-      <c r="E3" s="9">
-        <v>1.3523E-2</v>
-      </c>
-      <c r="F3" s="9">
-        <v>2.4119679999999999</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
-        <v>200</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="9">
-        <v>5.9482650000000001</v>
-      </c>
-      <c r="D4" s="9">
-        <v>1.661017</v>
-      </c>
-      <c r="E4" s="9">
-        <v>1.3542E-2</v>
-      </c>
-      <c r="F4" s="9">
-        <v>2.4389069999999999</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
-        <v>200</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="9">
-        <v>6.4899810000000002</v>
-      </c>
-      <c r="D5" s="9">
-        <v>1.7137579999999999</v>
-      </c>
-      <c r="E5" s="9">
-        <v>1.3974E-2</v>
-      </c>
-      <c r="F5" s="9">
-        <v>2.5475439999999998</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
-        <v>200</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" s="9">
-        <v>5.5867550899999996</v>
-      </c>
-      <c r="D6" s="9">
-        <v>1.5912682039999999</v>
-      </c>
-      <c r="E6" s="9">
-        <v>1.3004546000000001E-2</v>
-      </c>
-      <c r="F6" s="9">
-        <v>2.363631759</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
-        <v>450</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="9">
-        <v>6.2686900000000003</v>
-      </c>
-      <c r="D7" s="9">
-        <v>1.6652469999999999</v>
-      </c>
-      <c r="E7" s="9">
-        <v>1.3594E-2</v>
-      </c>
-      <c r="F7" s="9">
-        <v>2.5037349999999998</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
-        <v>450</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="9">
-        <v>5.5813620000000004</v>
-      </c>
-      <c r="D8" s="9">
-        <v>1.602895</v>
-      </c>
-      <c r="E8" s="9">
-        <v>1.3037999999999999E-2</v>
-      </c>
-      <c r="F8" s="9">
-        <v>2.3624909999999999</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
-        <v>450</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="9">
-        <v>5.7795639999999997</v>
-      </c>
-      <c r="D9" s="9">
-        <v>1.6611769999999999</v>
-      </c>
-      <c r="E9" s="9">
-        <v>1.3556E-2</v>
-      </c>
-      <c r="F9" s="9">
-        <v>2.4040720000000002</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
-        <v>450</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="9">
-        <v>5.4178569999999997</v>
-      </c>
-      <c r="D10" s="9">
-        <v>1.5712919999999999</v>
-      </c>
-      <c r="E10" s="9">
-        <v>1.2803E-2</v>
-      </c>
-      <c r="F10" s="9">
-        <v>2.3276289999999999</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
-        <v>450</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" s="9">
-        <v>5.4951415849999998</v>
-      </c>
-      <c r="D11" s="9">
-        <v>1.5641287020000001</v>
-      </c>
-      <c r="E11" s="9">
-        <v>1.2774294E-2</v>
-      </c>
-      <c r="F11" s="9">
-        <v>2.3441718329999999</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
-        <v>700</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="9">
-        <v>5.5732220000000003</v>
-      </c>
-      <c r="D12" s="9">
-        <v>1.5741700000000001</v>
-      </c>
-      <c r="E12" s="9">
-        <v>1.2815E-2</v>
-      </c>
-      <c r="F12" s="9">
-        <v>2.3607670000000001</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
-        <v>700</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="9">
-        <v>6.0681149999999997</v>
-      </c>
-      <c r="D13" s="9">
-        <v>1.670093</v>
-      </c>
-      <c r="E13" s="9">
-        <v>1.3611E-2</v>
-      </c>
-      <c r="F13" s="9">
-        <v>2.463355</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
-        <v>700</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="9">
-        <v>5.9792779999999999</v>
-      </c>
-      <c r="D14" s="9">
-        <v>1.6812469999999999</v>
-      </c>
-      <c r="E14" s="9">
-        <v>1.3731E-2</v>
-      </c>
-      <c r="F14" s="9">
-        <v>2.4452560000000001</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
-        <v>700</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="9">
-        <v>5.2344569999999999</v>
-      </c>
-      <c r="D15" s="9">
-        <v>1.5199389999999999</v>
-      </c>
-      <c r="E15" s="9">
-        <v>1.238E-2</v>
-      </c>
-      <c r="F15" s="9">
-        <v>2.2878940000000001</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
-        <v>700</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C16" s="9">
-        <v>5.1955267919999999</v>
-      </c>
-      <c r="D16" s="9">
-        <v>1.5284960970000001</v>
-      </c>
-      <c r="E16" s="9">
-        <v>1.2478497999999999E-2</v>
-      </c>
-      <c r="F16" s="9">
-        <v>2.2793698230000001</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
-        <v>950</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="9">
-        <v>5.2908249999999999</v>
-      </c>
-      <c r="D17" s="9">
-        <v>1.5283009999999999</v>
-      </c>
-      <c r="E17" s="9">
-        <v>1.2477E-2</v>
-      </c>
-      <c r="F17" s="9">
-        <v>2.300179</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
-        <v>950</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="9">
-        <v>5.2087339999999998</v>
-      </c>
-      <c r="D18" s="9">
-        <v>1.5541780000000001</v>
-      </c>
-      <c r="E18" s="9">
-        <v>1.2699E-2</v>
-      </c>
-      <c r="F18" s="9">
-        <v>2.2822650000000002</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
-        <v>950</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="9">
-        <v>5.7707839999999999</v>
-      </c>
-      <c r="D19" s="9">
-        <v>1.6231150000000001</v>
-      </c>
-      <c r="E19" s="9">
-        <v>1.3252999999999999E-2</v>
-      </c>
-      <c r="F19" s="9">
-        <v>2.4022459999999999</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
-        <v>950</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="9">
-        <v>5.6070669999999998</v>
-      </c>
-      <c r="D20" s="9">
-        <v>1.5620240000000001</v>
-      </c>
-      <c r="E20" s="9">
-        <v>1.2727E-2</v>
-      </c>
-      <c r="F20" s="9">
-        <v>2.3679250000000001</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="9">
-        <v>950</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" s="9">
-        <v>5.5741645999999996</v>
-      </c>
-      <c r="D21" s="9">
-        <v>1.565354374</v>
-      </c>
-      <c r="E21" s="9">
-        <v>1.2791924E-2</v>
-      </c>
-      <c r="F21" s="9">
-        <v>2.3609668780000002</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="9">
-        <v>1200</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="9">
-        <v>5.8258229999999998</v>
-      </c>
-      <c r="D22" s="9">
-        <v>1.61653</v>
-      </c>
-      <c r="E22" s="9">
-        <v>1.3174E-2</v>
-      </c>
-      <c r="F22" s="9">
-        <v>2.4136739999999999</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="9">
-        <v>1200</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="9">
-        <v>5.241644</v>
-      </c>
-      <c r="D23" s="9">
-        <v>1.5311049999999999</v>
-      </c>
-      <c r="E23" s="9">
-        <v>1.2460000000000001E-2</v>
-      </c>
-      <c r="F23" s="9">
-        <v>2.2894640000000002</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="9">
-        <v>1200</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="9">
-        <v>6.2929149999999998</v>
-      </c>
-      <c r="D24" s="9">
-        <v>1.7434339999999999</v>
-      </c>
-      <c r="E24" s="9">
-        <v>1.4215999999999999E-2</v>
-      </c>
-      <c r="F24" s="9">
-        <v>2.5085679999999999</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="9">
-        <v>1200</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="9">
-        <v>5.606814</v>
-      </c>
-      <c r="D25" s="9">
-        <v>1.564154</v>
-      </c>
-      <c r="E25" s="9">
-        <v>1.2782E-2</v>
-      </c>
-      <c r="F25" s="9">
-        <v>2.3678710000000001</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="9">
-        <v>1200</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C26" s="9">
-        <v>5.4270964900000003</v>
-      </c>
-      <c r="D26" s="9">
-        <v>1.550520726</v>
-      </c>
-      <c r="E26" s="9">
-        <v>1.264998E-2</v>
-      </c>
-      <c r="F26" s="9">
-        <v>2.3296129489999999</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="9">
-        <v>1450</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="9">
-        <v>5.2923549999999997</v>
-      </c>
-      <c r="D27" s="9">
-        <v>1.5485</v>
-      </c>
-      <c r="E27" s="9">
-        <v>1.2635E-2</v>
-      </c>
-      <c r="F27" s="9">
-        <v>2.3005119999999999</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="9">
-        <v>1450</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="9">
-        <v>5.7222939999999998</v>
-      </c>
-      <c r="D28" s="9">
-        <v>1.6005210000000001</v>
-      </c>
-      <c r="E28" s="9">
-        <v>1.3077E-2</v>
-      </c>
-      <c r="F28" s="9">
-        <v>2.3921320000000001</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="9">
-        <v>1450</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="9">
-        <v>6.3399049999999999</v>
-      </c>
-      <c r="D29" s="9">
-        <v>1.6922740000000001</v>
-      </c>
-      <c r="E29" s="9">
-        <v>1.3823999999999999E-2</v>
-      </c>
-      <c r="F29" s="9">
-        <v>2.5179170000000002</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="9">
-        <v>1450</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="9">
-        <v>5.8903970000000001</v>
-      </c>
-      <c r="D30" s="9">
-        <v>1.6263650000000001</v>
-      </c>
-      <c r="E30" s="9">
-        <v>1.3254E-2</v>
-      </c>
-      <c r="F30" s="9">
-        <v>2.4270139999999998</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="9">
-        <v>1450</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C31" s="9">
-        <v>5.5519440290000004</v>
-      </c>
-      <c r="D31" s="9">
-        <v>1.564234981</v>
-      </c>
-      <c r="E31" s="9">
-        <v>1.2759885E-2</v>
-      </c>
-      <c r="F31" s="9">
-        <v>2.3562563590000001</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="9">
-        <v>1700</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="9">
-        <v>5.3945420000000004</v>
-      </c>
-      <c r="D32" s="9">
-        <v>1.562891</v>
-      </c>
-      <c r="E32" s="9">
-        <v>1.2733E-2</v>
-      </c>
-      <c r="F32" s="9">
-        <v>2.3226149999999999</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="9">
-        <v>1700</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="9">
-        <v>6.2560019999999996</v>
-      </c>
-      <c r="D33" s="9">
-        <v>1.6887319999999999</v>
-      </c>
-      <c r="E33" s="9">
-        <v>1.3771E-2</v>
-      </c>
-      <c r="F33" s="9">
-        <v>2.5011999999999999</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="9">
-        <v>1700</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="9">
-        <v>6.0995470000000003</v>
-      </c>
-      <c r="D34" s="9">
-        <v>1.680825</v>
-      </c>
-      <c r="E34" s="9">
-        <v>1.3679999999999999E-2</v>
-      </c>
-      <c r="F34" s="9">
-        <v>2.4697260000000001</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="9">
-        <v>1700</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="9">
-        <v>5.6111399999999998</v>
-      </c>
-      <c r="D35" s="9">
-        <v>1.5643769999999999</v>
-      </c>
-      <c r="E35" s="9">
-        <v>1.2760000000000001E-2</v>
-      </c>
-      <c r="F35" s="9">
-        <v>2.3687839999999998</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="9">
-        <v>1700</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C36" s="9">
-        <v>5.7514176380000004</v>
-      </c>
-      <c r="D36" s="9">
-        <v>1.6147433579999999</v>
-      </c>
-      <c r="E36" s="9">
-        <v>1.3173528E-2</v>
-      </c>
-      <c r="F36" s="9">
-        <v>2.3982113410000001</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="9">
-        <v>1950</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="9">
-        <v>5.524451</v>
-      </c>
-      <c r="D37" s="9">
-        <v>1.5776479999999999</v>
-      </c>
-      <c r="E37" s="9">
-        <v>1.2881E-2</v>
-      </c>
-      <c r="F37" s="9">
-        <v>2.3504149999999999</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="9">
-        <v>1950</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="9">
-        <v>5.9718900000000001</v>
-      </c>
-      <c r="D38" s="9">
-        <v>1.666426</v>
-      </c>
-      <c r="E38" s="9">
-        <v>1.3584000000000001E-2</v>
-      </c>
-      <c r="F38" s="9">
-        <v>2.4437449999999998</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="9">
-        <v>1950</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="9">
-        <v>6.7022360000000001</v>
-      </c>
-      <c r="D39" s="9">
-        <v>1.7183440000000001</v>
-      </c>
-      <c r="E39" s="9">
-        <v>1.4094000000000001E-2</v>
-      </c>
-      <c r="F39" s="9">
-        <v>2.5888680000000002</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="9">
-        <v>1950</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="9">
-        <v>6.6990290000000003</v>
-      </c>
-      <c r="D40" s="9">
-        <v>1.706604</v>
-      </c>
-      <c r="E40" s="9">
-        <v>1.3922E-2</v>
-      </c>
-      <c r="F40" s="9">
-        <v>2.5882480000000001</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="9">
-        <v>1950</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C41" s="9">
-        <v>5.4820377819999999</v>
-      </c>
-      <c r="D41" s="9">
-        <v>1.594813686</v>
-      </c>
-      <c r="E41" s="9">
-        <v>1.3014011000000001E-2</v>
-      </c>
-      <c r="F41" s="9">
-        <v>2.3413751899999999</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="B47" s="31"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="31"/>
-      <c r="B48" s="31"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="31"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="31"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="31"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="31"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="31"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="31"/>
-      <c r="B51" s="31"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="31"/>
-      <c r="B52" s="31"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="31"/>
-      <c r="B53" s="31"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="31"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="31"/>
-      <c r="B54" s="31"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="31"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="31"/>
-      <c r="B55" s="31"/>
-      <c r="C55" s="31"/>
-      <c r="D55" s="31"/>
-      <c r="E55" s="31"/>
-      <c r="F55" s="31"/>
-      <c r="G55" s="31"/>
-      <c r="H55" s="31"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="31"/>
-      <c r="B56" s="31"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="31"/>
-      <c r="B57" s="31"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="31"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="31"/>
-      <c r="H57" s="31"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A47:H57"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B857177F-3BA4-49F1-9AE4-6EB10F1EFB01}">
   <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y47" sqref="Y47"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31821,7 +31820,7 @@
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" s="34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B47" s="35"/>
       <c r="C47" s="35"/>
@@ -31840,21 +31839,21 @@
       <c r="F48" s="35"/>
       <c r="G48" s="35"/>
       <c r="H48" s="35"/>
-      <c r="J48" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="30"/>
-      <c r="N48" s="30"/>
-      <c r="O48" s="30"/>
-      <c r="P48" s="30"/>
-      <c r="Q48" s="30"/>
-      <c r="R48" s="30"/>
-      <c r="S48" s="30"/>
-      <c r="T48" s="30"/>
-      <c r="U48" s="30"/>
-      <c r="V48" s="30"/>
+      <c r="J48" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="K48" s="36"/>
+      <c r="L48" s="36"/>
+      <c r="M48" s="36"/>
+      <c r="N48" s="36"/>
+      <c r="O48" s="36"/>
+      <c r="P48" s="36"/>
+      <c r="Q48" s="36"/>
+      <c r="R48" s="36"/>
+      <c r="S48" s="36"/>
+      <c r="T48" s="36"/>
+      <c r="U48" s="36"/>
+      <c r="V48" s="36"/>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" s="35"/>
@@ -31865,19 +31864,19 @@
       <c r="F49" s="35"/>
       <c r="G49" s="35"/>
       <c r="H49" s="35"/>
-      <c r="J49" s="30"/>
-      <c r="K49" s="30"/>
-      <c r="L49" s="30"/>
-      <c r="M49" s="30"/>
-      <c r="N49" s="30"/>
-      <c r="O49" s="30"/>
-      <c r="P49" s="30"/>
-      <c r="Q49" s="30"/>
-      <c r="R49" s="30"/>
-      <c r="S49" s="30"/>
-      <c r="T49" s="30"/>
-      <c r="U49" s="30"/>
-      <c r="V49" s="30"/>
+      <c r="J49" s="36"/>
+      <c r="K49" s="36"/>
+      <c r="L49" s="36"/>
+      <c r="M49" s="36"/>
+      <c r="N49" s="36"/>
+      <c r="O49" s="36"/>
+      <c r="P49" s="36"/>
+      <c r="Q49" s="36"/>
+      <c r="R49" s="36"/>
+      <c r="S49" s="36"/>
+      <c r="T49" s="36"/>
+      <c r="U49" s="36"/>
+      <c r="V49" s="36"/>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50" s="35"/>
@@ -31888,19 +31887,19 @@
       <c r="F50" s="35"/>
       <c r="G50" s="35"/>
       <c r="H50" s="35"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="30"/>
-      <c r="M50" s="30"/>
-      <c r="N50" s="30"/>
-      <c r="O50" s="30"/>
-      <c r="P50" s="30"/>
-      <c r="Q50" s="30"/>
-      <c r="R50" s="30"/>
-      <c r="S50" s="30"/>
-      <c r="T50" s="30"/>
-      <c r="U50" s="30"/>
-      <c r="V50" s="30"/>
+      <c r="J50" s="36"/>
+      <c r="K50" s="36"/>
+      <c r="L50" s="36"/>
+      <c r="M50" s="36"/>
+      <c r="N50" s="36"/>
+      <c r="O50" s="36"/>
+      <c r="P50" s="36"/>
+      <c r="Q50" s="36"/>
+      <c r="R50" s="36"/>
+      <c r="S50" s="36"/>
+      <c r="T50" s="36"/>
+      <c r="U50" s="36"/>
+      <c r="V50" s="36"/>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51" s="35"/>
@@ -31911,19 +31910,19 @@
       <c r="F51" s="35"/>
       <c r="G51" s="35"/>
       <c r="H51" s="35"/>
-      <c r="J51" s="30"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="30"/>
-      <c r="M51" s="30"/>
-      <c r="N51" s="30"/>
-      <c r="O51" s="30"/>
-      <c r="P51" s="30"/>
-      <c r="Q51" s="30"/>
-      <c r="R51" s="30"/>
-      <c r="S51" s="30"/>
-      <c r="T51" s="30"/>
-      <c r="U51" s="30"/>
-      <c r="V51" s="30"/>
+      <c r="J51" s="36"/>
+      <c r="K51" s="36"/>
+      <c r="L51" s="36"/>
+      <c r="M51" s="36"/>
+      <c r="N51" s="36"/>
+      <c r="O51" s="36"/>
+      <c r="P51" s="36"/>
+      <c r="Q51" s="36"/>
+      <c r="R51" s="36"/>
+      <c r="S51" s="36"/>
+      <c r="T51" s="36"/>
+      <c r="U51" s="36"/>
+      <c r="V51" s="36"/>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52" s="35"/>
@@ -31934,19 +31933,19 @@
       <c r="F52" s="35"/>
       <c r="G52" s="35"/>
       <c r="H52" s="35"/>
-      <c r="J52" s="30"/>
-      <c r="K52" s="30"/>
-      <c r="L52" s="30"/>
-      <c r="M52" s="30"/>
-      <c r="N52" s="30"/>
-      <c r="O52" s="30"/>
-      <c r="P52" s="30"/>
-      <c r="Q52" s="30"/>
-      <c r="R52" s="30"/>
-      <c r="S52" s="30"/>
-      <c r="T52" s="30"/>
-      <c r="U52" s="30"/>
-      <c r="V52" s="30"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
+      <c r="N52" s="36"/>
+      <c r="O52" s="36"/>
+      <c r="P52" s="36"/>
+      <c r="Q52" s="36"/>
+      <c r="R52" s="36"/>
+      <c r="S52" s="36"/>
+      <c r="T52" s="36"/>
+      <c r="U52" s="36"/>
+      <c r="V52" s="36"/>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A53" s="35"/>
@@ -31957,19 +31956,19 @@
       <c r="F53" s="35"/>
       <c r="G53" s="35"/>
       <c r="H53" s="35"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="30"/>
-      <c r="L53" s="30"/>
-      <c r="M53" s="30"/>
-      <c r="N53" s="30"/>
-      <c r="O53" s="30"/>
-      <c r="P53" s="30"/>
-      <c r="Q53" s="30"/>
-      <c r="R53" s="30"/>
-      <c r="S53" s="30"/>
-      <c r="T53" s="30"/>
-      <c r="U53" s="30"/>
-      <c r="V53" s="30"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+      <c r="N53" s="36"/>
+      <c r="O53" s="36"/>
+      <c r="P53" s="36"/>
+      <c r="Q53" s="36"/>
+      <c r="R53" s="36"/>
+      <c r="S53" s="36"/>
+      <c r="T53" s="36"/>
+      <c r="U53" s="36"/>
+      <c r="V53" s="36"/>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A54" s="35"/>
@@ -31980,19 +31979,19 @@
       <c r="F54" s="35"/>
       <c r="G54" s="35"/>
       <c r="H54" s="35"/>
-      <c r="J54" s="30"/>
-      <c r="K54" s="30"/>
-      <c r="L54" s="30"/>
-      <c r="M54" s="30"/>
-      <c r="N54" s="30"/>
-      <c r="O54" s="30"/>
-      <c r="P54" s="30"/>
-      <c r="Q54" s="30"/>
-      <c r="R54" s="30"/>
-      <c r="S54" s="30"/>
-      <c r="T54" s="30"/>
-      <c r="U54" s="30"/>
-      <c r="V54" s="30"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
+      <c r="N54" s="36"/>
+      <c r="O54" s="36"/>
+      <c r="P54" s="36"/>
+      <c r="Q54" s="36"/>
+      <c r="R54" s="36"/>
+      <c r="S54" s="36"/>
+      <c r="T54" s="36"/>
+      <c r="U54" s="36"/>
+      <c r="V54" s="36"/>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A55" s="35"/>
@@ -32003,19 +32002,19 @@
       <c r="F55" s="35"/>
       <c r="G55" s="35"/>
       <c r="H55" s="35"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="30"/>
-      <c r="L55" s="30"/>
-      <c r="M55" s="30"/>
-      <c r="N55" s="30"/>
-      <c r="O55" s="30"/>
-      <c r="P55" s="30"/>
-      <c r="Q55" s="30"/>
-      <c r="R55" s="30"/>
-      <c r="S55" s="30"/>
-      <c r="T55" s="30"/>
-      <c r="U55" s="30"/>
-      <c r="V55" s="30"/>
+      <c r="J55" s="36"/>
+      <c r="K55" s="36"/>
+      <c r="L55" s="36"/>
+      <c r="M55" s="36"/>
+      <c r="N55" s="36"/>
+      <c r="O55" s="36"/>
+      <c r="P55" s="36"/>
+      <c r="Q55" s="36"/>
+      <c r="R55" s="36"/>
+      <c r="S55" s="36"/>
+      <c r="T55" s="36"/>
+      <c r="U55" s="36"/>
+      <c r="V55" s="36"/>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A56" s="35"/>
@@ -32026,19 +32025,19 @@
       <c r="F56" s="35"/>
       <c r="G56" s="35"/>
       <c r="H56" s="35"/>
-      <c r="J56" s="30"/>
-      <c r="K56" s="30"/>
-      <c r="L56" s="30"/>
-      <c r="M56" s="30"/>
-      <c r="N56" s="30"/>
-      <c r="O56" s="30"/>
-      <c r="P56" s="30"/>
-      <c r="Q56" s="30"/>
-      <c r="R56" s="30"/>
-      <c r="S56" s="30"/>
-      <c r="T56" s="30"/>
-      <c r="U56" s="30"/>
-      <c r="V56" s="30"/>
+      <c r="J56" s="36"/>
+      <c r="K56" s="36"/>
+      <c r="L56" s="36"/>
+      <c r="M56" s="36"/>
+      <c r="N56" s="36"/>
+      <c r="O56" s="36"/>
+      <c r="P56" s="36"/>
+      <c r="Q56" s="36"/>
+      <c r="R56" s="36"/>
+      <c r="S56" s="36"/>
+      <c r="T56" s="36"/>
+      <c r="U56" s="36"/>
+      <c r="V56" s="36"/>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A57" s="35"/>
@@ -32049,19 +32048,19 @@
       <c r="F57" s="35"/>
       <c r="G57" s="35"/>
       <c r="H57" s="35"/>
-      <c r="J57" s="30"/>
-      <c r="K57" s="30"/>
-      <c r="L57" s="30"/>
-      <c r="M57" s="30"/>
-      <c r="N57" s="30"/>
-      <c r="O57" s="30"/>
-      <c r="P57" s="30"/>
-      <c r="Q57" s="30"/>
-      <c r="R57" s="30"/>
-      <c r="S57" s="30"/>
-      <c r="T57" s="30"/>
-      <c r="U57" s="30"/>
-      <c r="V57" s="30"/>
+      <c r="J57" s="36"/>
+      <c r="K57" s="36"/>
+      <c r="L57" s="36"/>
+      <c r="M57" s="36"/>
+      <c r="N57" s="36"/>
+      <c r="O57" s="36"/>
+      <c r="P57" s="36"/>
+      <c r="Q57" s="36"/>
+      <c r="R57" s="36"/>
+      <c r="S57" s="36"/>
+      <c r="T57" s="36"/>
+      <c r="U57" s="36"/>
+      <c r="V57" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="2">
